--- a/任务/5月/优惠券价格.xlsx
+++ b/任务/5月/优惠券价格.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bingge\Documents\QQEIM Files\2880070289\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/Desktop/qxf/任务/5月/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="456" windowWidth="28116" windowHeight="17604" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="28120" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>序号</t>
   </si>
@@ -208,6 +208,36 @@
     <rPh sb="5" eb="6">
       <t>jia ge</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <rPh sb="0" eb="1">
+      <t>he ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、代测优惠券与代存优惠券都是分类别的，代卖优惠券不分类别即全类别可用</t>
+  </si>
+  <si>
+    <t>2、代测优惠券的满N元可用（N=测试价格+包装价格）</t>
+  </si>
+  <si>
+    <t>3、代存优惠券满N元可用（N=对应月的仓储费）</t>
+  </si>
+  <si>
+    <t>4、代卖优惠券无满多少可用的理念，只要应收服务费不低于优惠券价格均可用</t>
+  </si>
+  <si>
+    <t>备注：</t>
+    <rPh sb="0" eb="1">
+      <t>bei z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代卖优惠券是全品牌类优惠券，代卖结束后自动获取最优代卖券使用，即不超过代卖服务费的最大面值优惠券。eg：代卖1000元的备件需要收取10%也就是100元服务费，如果有80，90，100，110，120这几种面值的代卖优惠券那么自动抵扣的是100元代卖服务费，如果有10，30，50，80，90，110，120这几种面值的代卖优惠券那么自动抵扣的是90元代卖服务费.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,19 +330,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,30 +640,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.796875" style="2"/>
+    <col min="14" max="14" width="19.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -631,724 +683,895 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>30</v>
       </c>
-      <c r="E2" s="5">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
         <v>16</v>
       </c>
-      <c r="K2" s="6">
-        <v>4</v>
-      </c>
-      <c r="L2" s="6">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="K2" s="5">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5">
         <v>5</v>
       </c>
       <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="O2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>30</v>
       </c>
-      <c r="E3" s="5">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="G3" s="7">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
         <v>16</v>
       </c>
-      <c r="K3" s="6">
-        <v>4</v>
-      </c>
-      <c r="L3" s="6">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="K3" s="5">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5">
         <v>5</v>
       </c>
       <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="O3" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
         <v>50</v>
       </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>30</v>
       </c>
-      <c r="H4" s="6">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
         <v>16</v>
       </c>
-      <c r="K4" s="6">
-        <v>4</v>
-      </c>
-      <c r="L4" s="6">
-        <v>20</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="K4" s="5">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5">
         <v>5</v>
       </c>
       <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="O4" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>30</v>
       </c>
-      <c r="E5" s="5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="E5" s="7">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
         <v>16</v>
       </c>
-      <c r="K5" s="6">
-        <v>4</v>
-      </c>
-      <c r="L5" s="6">
-        <v>20</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5">
+        <v>20</v>
+      </c>
+      <c r="M5" s="5">
         <v>5</v>
       </c>
       <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="O5" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>40</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>35</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
         <v>25</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>15</v>
       </c>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>20</v>
-      </c>
-      <c r="K6" s="6">
-        <v>4</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5">
         <v>25</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>5</v>
       </c>
       <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="O6" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>50</v>
       </c>
-      <c r="E7" s="5">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="E7" s="7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
         <v>30</v>
       </c>
-      <c r="H7" s="6">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
         <v>16</v>
       </c>
-      <c r="K7" s="6">
-        <v>4</v>
-      </c>
-      <c r="L7" s="6">
-        <v>20</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="K7" s="5">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5">
         <v>5</v>
       </c>
       <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="O7" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>80</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>70</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
         <v>50</v>
       </c>
-      <c r="H8" s="6">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="H8" s="5">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
         <v>30</v>
       </c>
-      <c r="K8" s="6">
-        <v>4</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="K8" s="5">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
         <v>38</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>5</v>
       </c>
       <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="O8" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
         <v>16</v>
       </c>
-      <c r="K9" s="6">
-        <v>4</v>
-      </c>
-      <c r="L9" s="6">
-        <v>20</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="K9" s="5">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5">
+        <v>20</v>
+      </c>
+      <c r="M9" s="5">
         <v>5</v>
       </c>
       <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="O9" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>30</v>
       </c>
-      <c r="E10" s="5">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>20</v>
-      </c>
-      <c r="H10" s="6">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="E10" s="7">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
         <v>16</v>
       </c>
-      <c r="K10" s="6">
-        <v>4</v>
-      </c>
-      <c r="L10" s="6">
-        <v>20</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="K10" s="5">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5">
+        <v>20</v>
+      </c>
+      <c r="M10" s="5">
         <v>5</v>
       </c>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="O10" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>80</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>70</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="7">
         <v>60</v>
       </c>
-      <c r="H11" s="6">
-        <v>20</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="H11" s="5">
+        <v>20</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
         <v>30</v>
       </c>
-      <c r="K11" s="6">
-        <v>4</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="K11" s="5">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
         <v>38</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>5</v>
       </c>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="O11" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>200</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>70</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>100</v>
       </c>
-      <c r="H12" s="6">
-        <v>20</v>
-      </c>
-      <c r="I12" s="6">
-        <v>2</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="H12" s="5">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
         <v>30</v>
       </c>
-      <c r="K12" s="6">
-        <v>4</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="5">
+        <v>4</v>
+      </c>
+      <c r="L12" s="5">
         <v>38</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>5</v>
       </c>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="7">
         <v>200</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>70</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>100</v>
       </c>
-      <c r="H13" s="6">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="H13" s="5">
+        <v>20</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
         <v>30</v>
       </c>
-      <c r="K13" s="6">
-        <v>4</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="K13" s="5">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
         <v>38</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>5</v>
       </c>
       <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="D14" s="7">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5">
         <v>16</v>
       </c>
-      <c r="K14" s="6">
-        <v>4</v>
-      </c>
-      <c r="L14" s="6">
-        <v>20</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="K14" s="5">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5">
+        <v>20</v>
+      </c>
+      <c r="M14" s="5">
         <v>5</v>
       </c>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>30</v>
       </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6">
-        <v>2</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5">
         <v>16</v>
       </c>
-      <c r="K15" s="6">
-        <v>4</v>
-      </c>
-      <c r="L15" s="6">
-        <v>20</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="K15" s="5">
+        <v>4</v>
+      </c>
+      <c r="L15" s="5">
+        <v>20</v>
+      </c>
+      <c r="M15" s="5">
         <v>5</v>
       </c>
       <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>50</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>35</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
         <v>30</v>
       </c>
-      <c r="H16" s="6">
-        <v>10</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
         <v>16</v>
       </c>
-      <c r="K16" s="6">
-        <v>4</v>
-      </c>
-      <c r="L16" s="6">
-        <v>20</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="K16" s="5">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5">
+        <v>20</v>
+      </c>
+      <c r="M16" s="5">
         <v>5</v>
       </c>
       <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>80</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>35</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>50</v>
       </c>
-      <c r="H17" s="6">
-        <v>10</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="H17" s="5">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
         <v>16</v>
       </c>
-      <c r="K17" s="6">
-        <v>4</v>
-      </c>
-      <c r="L17" s="6">
-        <v>20</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="K17" s="5">
+        <v>4</v>
+      </c>
+      <c r="L17" s="5">
+        <v>20</v>
+      </c>
+      <c r="M17" s="5">
         <v>5</v>
       </c>
       <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>595</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>32</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <v>64</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <v>80</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1247</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
@@ -1364,5 +1587,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>